--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H2">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J2">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02970099999999999</v>
+        <v>0.101223</v>
       </c>
       <c r="N2">
-        <v>0.08910299999999999</v>
+        <v>0.303669</v>
       </c>
       <c r="O2">
-        <v>0.004249761775724393</v>
+        <v>0.01313978392822635</v>
       </c>
       <c r="P2">
-        <v>0.004249761775724394</v>
+        <v>0.01313978392822635</v>
       </c>
       <c r="Q2">
-        <v>0.04629090936399999</v>
+        <v>0.148646717802</v>
       </c>
       <c r="R2">
-        <v>0.4166181842759999</v>
+        <v>1.337820460218</v>
       </c>
       <c r="S2">
-        <v>2.419007396980765E-05</v>
+        <v>6.725308612446341E-05</v>
       </c>
       <c r="T2">
-        <v>2.419007396980765E-05</v>
+        <v>6.725308612446341E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H3">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J3">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.122205</v>
       </c>
       <c r="O3">
-        <v>0.05352349431025661</v>
+        <v>0.0485579075347673</v>
       </c>
       <c r="P3">
-        <v>0.0535234943102566</v>
+        <v>0.0485579075347673</v>
       </c>
       <c r="Q3">
-        <v>0.5830094378733334</v>
+        <v>0.5493220906677778</v>
       </c>
       <c r="R3">
-        <v>5.247084940860001</v>
+        <v>4.94389881601</v>
       </c>
       <c r="S3">
-        <v>0.0003046611445101512</v>
+        <v>0.0002485329405184707</v>
       </c>
       <c r="T3">
-        <v>0.0003046611445101511</v>
+        <v>0.0002485329405184707</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.558564</v>
+        <v>1.468507333333333</v>
       </c>
       <c r="H4">
-        <v>4.675692</v>
+        <v>4.405521999999999</v>
       </c>
       <c r="I4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="J4">
-        <v>0.005692101168584756</v>
+        <v>0.005118279455112885</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06150266666666667</v>
+        <v>7.22826</v>
       </c>
       <c r="N4">
-        <v>0.184508</v>
+        <v>21.68478</v>
       </c>
       <c r="O4">
-        <v>0.008800097030575363</v>
+        <v>0.9383023085370062</v>
       </c>
       <c r="P4">
-        <v>0.008800097030575363</v>
+        <v>0.9383023085370064</v>
       </c>
       <c r="Q4">
-        <v>0.09585584217066666</v>
+        <v>10.61475281724</v>
       </c>
       <c r="R4">
-        <v>0.8627025795359999</v>
+        <v>95.53277535515998</v>
       </c>
       <c r="S4">
-        <v>5.009104259139727E-05</v>
+        <v>0.00480249342846995</v>
       </c>
       <c r="T4">
-        <v>5.009104259139727E-05</v>
+        <v>0.004802493428469951</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.558564</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H5">
-        <v>4.675692</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I5">
-        <v>0.005692101168584756</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J5">
-        <v>0.005692101168584756</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>6.523590333333334</v>
+        <v>0.101223</v>
       </c>
       <c r="N5">
-        <v>19.570771</v>
+        <v>0.303669</v>
       </c>
       <c r="O5">
-        <v>0.9334266468834437</v>
+        <v>0.01313978392822635</v>
       </c>
       <c r="P5">
-        <v>0.9334266468834437</v>
+        <v>0.01313978392822635</v>
       </c>
       <c r="Q5">
-        <v>10.16743304428133</v>
+        <v>26.27248761703801</v>
       </c>
       <c r="R5">
-        <v>91.506897398532</v>
+        <v>236.452388553342</v>
       </c>
       <c r="S5">
-        <v>0.0053131589075134</v>
+        <v>0.01188661208628975</v>
       </c>
       <c r="T5">
-        <v>0.0053131589075134</v>
+        <v>0.01188661208628975</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I6">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J6">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.02970099999999999</v>
+        <v>0.3740683333333334</v>
       </c>
       <c r="N6">
-        <v>0.08910299999999999</v>
+        <v>1.122205</v>
       </c>
       <c r="O6">
-        <v>0.004249761775724393</v>
+        <v>0.0485579075347673</v>
       </c>
       <c r="P6">
-        <v>0.004249761775724394</v>
+        <v>0.0485579075347673</v>
       </c>
       <c r="Q6">
-        <v>7.708911558772667</v>
+        <v>97.08965013313225</v>
       </c>
       <c r="R6">
-        <v>69.380204028954</v>
+        <v>873.8068511981902</v>
       </c>
       <c r="S6">
-        <v>0.004028418179627274</v>
+        <v>0.04392682663128206</v>
       </c>
       <c r="T6">
-        <v>0.004028418179627275</v>
+        <v>0.04392682663128206</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>778.6517180000001</v>
       </c>
       <c r="I7">
-        <v>0.9479162344201305</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="J7">
-        <v>0.9479162344201304</v>
+        <v>0.9046276674881553</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3740683333333334</v>
+        <v>7.22826</v>
       </c>
       <c r="N7">
-        <v>1.122205</v>
+        <v>21.68478</v>
       </c>
       <c r="O7">
-        <v>0.05352349431025661</v>
+        <v>0.9383023085370062</v>
       </c>
       <c r="P7">
-        <v>0.0535234943102566</v>
+        <v>0.9383023085370064</v>
       </c>
       <c r="Q7">
-        <v>97.08965013313225</v>
+        <v>1876.09902238356</v>
       </c>
       <c r="R7">
-        <v>873.8068511981902</v>
+        <v>16884.89120145204</v>
       </c>
       <c r="S7">
-        <v>0.05073578917958572</v>
+        <v>0.8488142287705833</v>
       </c>
       <c r="T7">
-        <v>0.05073578917958571</v>
+        <v>0.8488142287705834</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>259.5505726666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H8">
-        <v>778.6517180000001</v>
+        <v>1.76722</v>
       </c>
       <c r="I8">
-        <v>0.9479162344201305</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J8">
-        <v>0.9479162344201304</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,33 +927,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.06150266666666667</v>
+        <v>0.101223</v>
       </c>
       <c r="N8">
-        <v>0.184508</v>
+        <v>0.303669</v>
       </c>
       <c r="O8">
-        <v>0.008800097030575363</v>
+        <v>0.01313978392822635</v>
       </c>
       <c r="P8">
-        <v>0.008800097030575363</v>
+        <v>0.01313978392822635</v>
       </c>
       <c r="Q8">
-        <v>15.96305235386045</v>
+        <v>0.05962777002000001</v>
       </c>
       <c r="R8">
-        <v>143.667471184744</v>
+        <v>0.5366499301800001</v>
       </c>
       <c r="S8">
-        <v>0.008341754839754771</v>
+        <v>2.697773359453754E-05</v>
       </c>
       <c r="T8">
-        <v>0.008341754839754769</v>
+        <v>2.697773359453754E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>259.5505726666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H9">
-        <v>778.6517180000001</v>
+        <v>1.76722</v>
       </c>
       <c r="I9">
-        <v>0.9479162344201305</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J9">
-        <v>0.9479162344201304</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>6.523590333333334</v>
+        <v>0.3740683333333334</v>
       </c>
       <c r="N9">
-        <v>19.570771</v>
+        <v>1.122205</v>
       </c>
       <c r="O9">
-        <v>0.9334266468834437</v>
+        <v>0.0485579075347673</v>
       </c>
       <c r="P9">
-        <v>0.9334266468834437</v>
+        <v>0.0485579075347673</v>
       </c>
       <c r="Q9">
-        <v>1693.201606859398</v>
+        <v>0.2203536800111111</v>
       </c>
       <c r="R9">
-        <v>15238.81446173458</v>
+        <v>1.9831831201</v>
       </c>
       <c r="S9">
-        <v>0.8848102722211628</v>
+        <v>9.969587784218345E-05</v>
       </c>
       <c r="T9">
-        <v>0.8848102722211627</v>
+        <v>9.969587784218345E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5133286666666667</v>
+        <v>0.5890733333333333</v>
       </c>
       <c r="H10">
-        <v>1.539986</v>
+        <v>1.76722</v>
       </c>
       <c r="I10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="J10">
-        <v>0.001874750541781658</v>
+        <v>0.002053133730501083</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.02970099999999999</v>
+        <v>7.22826</v>
       </c>
       <c r="N10">
-        <v>0.08910299999999999</v>
+        <v>21.68478</v>
       </c>
       <c r="O10">
-        <v>0.004249761775724393</v>
+        <v>0.9383023085370062</v>
       </c>
       <c r="P10">
-        <v>0.004249761775724394</v>
+        <v>0.9383023085370064</v>
       </c>
       <c r="Q10">
-        <v>0.01524637472866666</v>
+        <v>4.2579752124</v>
       </c>
       <c r="R10">
-        <v>0.137217372558</v>
+        <v>38.3217769116</v>
       </c>
       <c r="S10">
-        <v>7.967243191482287E-06</v>
+        <v>0.001926460119064362</v>
       </c>
       <c r="T10">
-        <v>7.967243191482287E-06</v>
+        <v>0.001926460119064362</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5133286666666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H11">
-        <v>1.539986</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I11">
-        <v>0.001874750541781658</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J11">
-        <v>0.001874750541781658</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3740683333333334</v>
+        <v>0.101223</v>
       </c>
       <c r="N11">
-        <v>1.122205</v>
+        <v>0.303669</v>
       </c>
       <c r="O11">
-        <v>0.05352349431025661</v>
+        <v>0.01313978392822635</v>
       </c>
       <c r="P11">
-        <v>0.0535234943102566</v>
+        <v>0.01313978392822635</v>
       </c>
       <c r="Q11">
-        <v>0.1920199987922223</v>
+        <v>2.561559461523</v>
       </c>
       <c r="R11">
-        <v>1.72817998913</v>
+        <v>23.054035153707</v>
       </c>
       <c r="S11">
-        <v>0.0001003431999562011</v>
+        <v>0.001158941022217596</v>
       </c>
       <c r="T11">
-        <v>0.000100343199956201</v>
+        <v>0.001158941022217596</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5133286666666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H12">
-        <v>1.539986</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I12">
-        <v>0.001874750541781658</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J12">
-        <v>0.001874750541781658</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.06150266666666667</v>
+        <v>0.3740683333333334</v>
       </c>
       <c r="N12">
-        <v>0.184508</v>
+        <v>1.122205</v>
       </c>
       <c r="O12">
-        <v>0.008800097030575363</v>
+        <v>0.0485579075347673</v>
       </c>
       <c r="P12">
-        <v>0.008800097030575363</v>
+        <v>0.0485579075347673</v>
       </c>
       <c r="Q12">
-        <v>0.03157108187644445</v>
+        <v>9.466211024235001</v>
       </c>
       <c r="R12">
-        <v>0.284139736888</v>
+        <v>85.195899218115</v>
       </c>
       <c r="S12">
-        <v>1.649798667580232E-05</v>
+        <v>0.004282852085124586</v>
       </c>
       <c r="T12">
-        <v>1.649798667580232E-05</v>
+        <v>0.004282852085124586</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5133286666666667</v>
+        <v>25.306101</v>
       </c>
       <c r="H13">
-        <v>1.539986</v>
+        <v>75.91830299999999</v>
       </c>
       <c r="I13">
-        <v>0.001874750541781658</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="J13">
-        <v>0.001874750541781658</v>
+        <v>0.0882009193262308</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.523590333333334</v>
+        <v>7.22826</v>
       </c>
       <c r="N13">
-        <v>19.570771</v>
+        <v>21.68478</v>
       </c>
       <c r="O13">
-        <v>0.9334266468834437</v>
+        <v>0.9383023085370062</v>
       </c>
       <c r="P13">
-        <v>0.9334266468834437</v>
+        <v>0.9383023085370064</v>
       </c>
       <c r="Q13">
-        <v>3.348745927689556</v>
+        <v>182.91907761426</v>
       </c>
       <c r="R13">
-        <v>30.138713349206</v>
+        <v>1646.27169852834</v>
       </c>
       <c r="S13">
-        <v>0.001749942111958173</v>
+        <v>0.0827591262188886</v>
       </c>
       <c r="T13">
-        <v>0.001749942111958172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>12.18925266666667</v>
-      </c>
-      <c r="H14">
-        <v>36.567758</v>
-      </c>
-      <c r="I14">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="J14">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>0.02970099999999999</v>
-      </c>
-      <c r="N14">
-        <v>0.08910299999999999</v>
-      </c>
-      <c r="O14">
-        <v>0.004249761775724393</v>
-      </c>
-      <c r="P14">
-        <v>0.004249761775724394</v>
-      </c>
-      <c r="Q14">
-        <v>0.3620329934526666</v>
-      </c>
-      <c r="R14">
-        <v>3.258296941073999</v>
-      </c>
-      <c r="S14">
-        <v>0.0001891862789358292</v>
-      </c>
-      <c r="T14">
-        <v>0.0001891862789358293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>12.18925266666667</v>
-      </c>
-      <c r="H15">
-        <v>36.567758</v>
-      </c>
-      <c r="I15">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="J15">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M15">
-        <v>0.3740683333333334</v>
-      </c>
-      <c r="N15">
-        <v>1.122205</v>
-      </c>
-      <c r="O15">
-        <v>0.05352349431025661</v>
-      </c>
-      <c r="P15">
-        <v>0.0535234943102566</v>
-      </c>
-      <c r="Q15">
-        <v>4.559613429598889</v>
-      </c>
-      <c r="R15">
-        <v>41.03652086639</v>
-      </c>
-      <c r="S15">
-        <v>0.002382700786204531</v>
-      </c>
-      <c r="T15">
-        <v>0.002382700786204531</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>12.18925266666667</v>
-      </c>
-      <c r="H16">
-        <v>36.567758</v>
-      </c>
-      <c r="I16">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="J16">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.06150266666666667</v>
-      </c>
-      <c r="N16">
-        <v>0.184508</v>
-      </c>
-      <c r="O16">
-        <v>0.008800097030575363</v>
-      </c>
-      <c r="P16">
-        <v>0.008800097030575363</v>
-      </c>
-      <c r="Q16">
-        <v>0.7496715436737779</v>
-      </c>
-      <c r="R16">
-        <v>6.747043893064</v>
-      </c>
-      <c r="S16">
-        <v>0.0003917531615533932</v>
-      </c>
-      <c r="T16">
-        <v>0.0003917531615533932</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>12.18925266666667</v>
-      </c>
-      <c r="H17">
-        <v>36.567758</v>
-      </c>
-      <c r="I17">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="J17">
-        <v>0.04451691386950307</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>6.523590333333334</v>
-      </c>
-      <c r="N17">
-        <v>19.570771</v>
-      </c>
-      <c r="O17">
-        <v>0.9334266468834437</v>
-      </c>
-      <c r="P17">
-        <v>0.9334266468834437</v>
-      </c>
-      <c r="Q17">
-        <v>79.51769086682422</v>
-      </c>
-      <c r="R17">
-        <v>715.659217801418</v>
-      </c>
-      <c r="S17">
-        <v>0.04155327364280932</v>
-      </c>
-      <c r="T17">
-        <v>0.04155327364280932</v>
+        <v>0.08275912621888862</v>
       </c>
     </row>
   </sheetData>
